--- a/biology/Médecine/Adénocarcinome/Adénocarcinome.xlsx
+++ b/biology/Médecine/Adénocarcinome/Adénocarcinome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nocarcinome</t>
+          <t>Adénocarcinome</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un adénocarcinome est une tumeur maligne développée aux dépens d'un épithélium glandulaire. Le terme est à distinguer de celui d'adénome qui désigne une tumeur développée aux dépens d'un épithélium glandulaire, mais bénigne. En pratique, une tumeur est reconnue comme adénocarcinome lorsque son analyse microscopique anatomo-pathologique démontre un aspect de glande (tubes glandulaires) ou la présence de sécrétions mucineuses (muco-sécrétions).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nocarcinome</t>
+          <t>Adénocarcinome</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme adénocarcinome vient du grec adeno- (qui se rapporte à une glande) et de carcinome, qui désigne un cancer qui s'est développé dans les cellules épithéliales.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nocarcinome</t>
+          <t>Adénocarcinome</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils ont pour origine soit des glandes (sein, prostate, thyroïde, pancréas, ovaire, rein, foie) soit des muqueuses glandulaires (bronches, œsophage, estomac, côlon, anus, endomètre, etc.).
 Il s'agit de la variété histologique la plus fréquemment rencontrée en cancérologie humaine : hors poumons, ils représentent environ 95 % des tumeurs malignes d'organe.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nocarcinome</t>
+          <t>Adénocarcinome</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Différenciation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les adénocarcinomes peuvent être :
 bien différenciés : constitués de glandes individualisées proches des cellules normales ;
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nocarcinome</t>
+          <t>Adénocarcinome</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Classifications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Différents systèmes sont utilisés suivant la nature de la tumeur.
 La classification des tumeurs fait souvent intervenir l'histologie sous forme de grades :
